--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3820672.188675487</v>
+        <v>3818420.108964282</v>
       </c>
     </row>
     <row r="7">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.78083674902116</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>113.688337382602</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>70.99506002739666</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>62.51376553465026</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>122.288263591708</v>
       </c>
       <c r="F5" t="n">
-        <v>247.9002380529878</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>20.95866062610972</v>
+        <v>117.7126336312586</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606649</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>302.044310734003</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>83.32727861849563</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>131.5522128412691</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174141</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695746</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.974488840439583</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,13 +1844,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>119.6760079449695</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450754</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2424.744041450754</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.9544330261738</v>
+        <v>138.2242982780386</v>
       </c>
       <c r="C4" t="n">
-        <v>313.9544330261738</v>
+        <v>138.2242982780386</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>138.2242982780386</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>138.2242982780386</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>857.7417881064171</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U4" t="n">
-        <v>568.6389212320606</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V4" t="n">
-        <v>313.9544330261738</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W4" t="n">
-        <v>313.9544330261738</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="X4" t="n">
-        <v>313.9544330261738</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="Y4" t="n">
-        <v>313.9544330261738</v>
+        <v>319.8727631082783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1501.213961756484</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C5" t="n">
-        <v>1132.251444816073</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D5" t="n">
-        <v>773.9857462093221</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="E5" t="n">
-        <v>773.9857462093221</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820606</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>899.7166415493873</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U7" t="n">
-        <v>610.6137746750309</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V7" t="n">
-        <v>355.929286469144</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="W7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>764.341133147311</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490667</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>371.6073797998633</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758595</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.5649387724261</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X10" t="n">
-        <v>788.005982746196</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026658</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,19 +5036,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5057,10 +5057,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5072,10 +5072,10 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703778</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121652</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121652</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,22 +5276,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438167</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>808.8888553856871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>639.9526724577802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>489.8360330454444</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000582</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359457</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159268</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5513,25 +5513,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5601,19 +5601,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>642.8692823226941</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>473.9330993947872</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>323.8164599824514</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
         <v>175.9033664000583</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2326.07822707019</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192599</v>
@@ -7649,7 +7649,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>317.6151975578602</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520185</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>141.4594738061296</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>61.35027805667508</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.725617676</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977555</v>
       </c>
-      <c r="G2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977558</v>
-      </c>
       <c r="I2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.861628258540616e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.861628258540616e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186731</v>
       </c>
       <c r="F4" t="n">
         <v>14826.69604186736</v>
@@ -26433,19 +26433,19 @@
         <v>14826.69604186738</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729759.7047753627</v>
+        <v>-729759.7047753624</v>
       </c>
       <c r="C6" t="n">
-        <v>598985.04095223</v>
+        <v>598985.0409522301</v>
       </c>
       <c r="D6" t="n">
-        <v>598985.0409522298</v>
+        <v>598985.0409522301</v>
       </c>
       <c r="E6" t="n">
-        <v>345606.2470246259</v>
+        <v>345571.5090991899</v>
       </c>
       <c r="F6" t="n">
-        <v>671018.7088319811</v>
+        <v>670983.9709065458</v>
       </c>
       <c r="G6" t="n">
-        <v>671018.7088319818</v>
+        <v>670983.9709065458</v>
       </c>
       <c r="H6" t="n">
-        <v>671018.7088319814</v>
+        <v>670983.9709065454</v>
       </c>
       <c r="I6" t="n">
-        <v>671018.7088319813</v>
+        <v>670983.9709065455</v>
       </c>
       <c r="J6" t="n">
-        <v>453487.5064347038</v>
+        <v>453452.7685092684</v>
       </c>
       <c r="K6" t="n">
-        <v>671018.7088319812</v>
+        <v>670983.9709065455</v>
       </c>
       <c r="L6" t="n">
-        <v>671018.7088319812</v>
+        <v>670983.9709065458</v>
       </c>
       <c r="M6" t="n">
-        <v>585963.6808964693</v>
+        <v>585928.9429710339</v>
       </c>
       <c r="N6" t="n">
-        <v>671018.7088319813</v>
+        <v>670983.9709065456</v>
       </c>
       <c r="O6" t="n">
-        <v>671018.7088319812</v>
+        <v>670983.9709065454</v>
       </c>
       <c r="P6" t="n">
-        <v>671018.7088319814</v>
+        <v>670983.9709065455</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303.9530049144594</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>272.5496012734516</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>74.42598799553458</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>157.0351837415189</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>259.6421064805537</v>
       </c>
       <c r="F5" t="n">
-        <v>158.9758076887236</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>198.5902886500595</v>
+        <v>101.8363156449106</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>222.9250743103427</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>108.8774149194504</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28059,25 +28059,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>136.2216706576736</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>94.15744254776803</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.060977512742252e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28564,13 +28564,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31619,7 +31619,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,34 +31838,34 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,28 +32072,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32102,7 +32102,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32321,10 +32321,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,28 +33734,28 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33974,25 +33974,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35267,7 +35267,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.7309431539454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35969,10 +35969,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
